--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1581695.09391589</v>
+        <v>-1584271.41539713</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,16 +665,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>126.7498226612768</v>
       </c>
       <c r="G2" t="n">
-        <v>219.18346852123</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -750,10 +750,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657078</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I3" t="n">
         <v>18.81721868247742</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>24.04388985474025</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>93.66874377651837</v>
       </c>
       <c r="U4" t="n">
-        <v>6.944023270396605</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2781875329279</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -953,16 +953,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>19.49168497188395</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>81.46084344268539</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>71.30622015837476</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>27.55805524026624</v>
       </c>
       <c r="F8" t="n">
-        <v>359.1943048678341</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>78.97413341088343</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>53.54735467376889</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>126.926382450742</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>132.6315337216706</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>102.15578456998</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>13.53601007884802</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>139.5115415340516</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>78.9105100867805</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2950,10 +2950,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545295</v>
@@ -2962,13 +2962,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652589</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3007,13 +3007,13 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317889</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308918</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,10 +3661,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
@@ -3673,7 +3673,7 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3898,7 +3898,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
         <v>124.3308255261727</v>
@@ -3907,16 +3907,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1698.50962791956</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C2" t="n">
-        <v>1329.547110979148</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="D2" t="n">
-        <v>971.2814123723979</v>
+        <v>194.542240332463</v>
       </c>
       <c r="E2" t="n">
-        <v>585.4931597741536</v>
+        <v>194.542240332463</v>
       </c>
       <c r="F2" t="n">
-        <v>585.4931597741536</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.50962791956</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4398,16 +4398,16 @@
         <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>511.4317969248226</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>896.6002483891543</v>
       </c>
       <c r="S4" t="n">
-        <v>920.887005818185</v>
+        <v>704.9143642159806</v>
       </c>
       <c r="T4" t="n">
-        <v>920.887005818185</v>
+        <v>610.2994715124267</v>
       </c>
       <c r="U4" t="n">
-        <v>913.8728408985925</v>
+        <v>321.1966046380703</v>
       </c>
       <c r="V4" t="n">
-        <v>913.8728408985925</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="W4" t="n">
-        <v>913.8728408985925</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="X4" t="n">
-        <v>913.8728408985925</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y4" t="n">
-        <v>693.0802617550623</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1959.379186075721</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4565,22 +4565,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4601,16 +4601,16 @@
         <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2736.118358115654</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2736.118358115654</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2736.118358115654</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>2345.979026139843</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="6">
@@ -4635,16 +4635,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>148.7957966773202</v>
+        <v>138.5386014406428</v>
       </c>
       <c r="C7" t="n">
-        <v>148.7957966773202</v>
+        <v>138.5386014406428</v>
       </c>
       <c r="D7" t="n">
-        <v>148.7957966773202</v>
+        <v>138.5386014406428</v>
       </c>
       <c r="E7" t="n">
-        <v>148.7957966773202</v>
+        <v>138.5386014406428</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>138.5386014406428</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218343</v>
@@ -4747,28 +4747,28 @@
         <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U7" t="n">
-        <v>920.887005818185</v>
+        <v>320.1870662708825</v>
       </c>
       <c r="V7" t="n">
-        <v>666.2025176122982</v>
+        <v>320.1870662708825</v>
       </c>
       <c r="W7" t="n">
-        <v>376.7853475753375</v>
+        <v>320.1870662708825</v>
       </c>
       <c r="X7" t="n">
-        <v>148.7957966773202</v>
+        <v>320.1870662708825</v>
       </c>
       <c r="Y7" t="n">
-        <v>148.7957966773202</v>
+        <v>320.1870662708825</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1892.963660013483</v>
+        <v>1285.591601078696</v>
       </c>
       <c r="C8" t="n">
-        <v>1524.001143073071</v>
+        <v>916.6290841382845</v>
       </c>
       <c r="D8" t="n">
-        <v>1165.735444466321</v>
+        <v>558.363385531534</v>
       </c>
       <c r="E8" t="n">
-        <v>779.9471918680763</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520489</v>
+        <v>2788.565186649824</v>
       </c>
       <c r="W8" t="n">
-        <v>2656.568750250374</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="X8" t="n">
-        <v>2283.102991989294</v>
+        <v>2062.33077311863</v>
       </c>
       <c r="Y8" t="n">
-        <v>1892.963660013483</v>
+        <v>1672.191441142818</v>
       </c>
     </row>
     <row r="9">
@@ -4857,70 +4857,70 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>541.6393785387522</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="C10" t="n">
-        <v>541.6393785387522</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="D10" t="n">
-        <v>391.5227391264165</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E10" t="n">
-        <v>243.6096455440234</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T10" t="n">
-        <v>831.0565485757129</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="U10" t="n">
-        <v>831.0565485757129</v>
+        <v>410.0175235133551</v>
       </c>
       <c r="V10" t="n">
-        <v>831.0565485757129</v>
+        <v>410.0175235133551</v>
       </c>
       <c r="W10" t="n">
-        <v>541.6393785387522</v>
+        <v>120.6003534763944</v>
       </c>
       <c r="X10" t="n">
-        <v>541.6393785387522</v>
+        <v>120.6003534763944</v>
       </c>
       <c r="Y10" t="n">
-        <v>541.6393785387522</v>
+        <v>66.51211643218345</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,61 +5027,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
         <v>235.5284942057738</v>
@@ -5191,58 +5191,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038357</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797759</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580262</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,10 +5258,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5273,16 +5273,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5291,13 +5291,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>372.4964262156759</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>867.8220324314346</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>801.6918836311994</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C16" t="n">
-        <v>801.6918836311994</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D16" t="n">
-        <v>651.5752442188636</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>503.6621506364705</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>356.7722031385601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>189.5761038534401</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5455,31 +5455,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y16" t="n">
-        <v>983.3403484614391</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="17">
@@ -5510,10 +5510,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075811</v>
@@ -5522,10 +5522,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>376.4492432300683</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>376.4492432300683</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5732,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5789,10 +5789,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5947,13 +5947,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5969,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>691.1951506745237</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6424,10 +6424,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,16 +6449,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6467,13 +6467,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6655,7 +6655,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954145</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380724</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979285</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O34" t="n">
         <v>2179.340199382518</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7114,7 +7114,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931273</v>
@@ -7123,10 +7123,10 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,61 +7160,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345477</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,37 +7421,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,22 +7482,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,52 +7543,52 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384016</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931274</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7731,16 +7731,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,16 +7801,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380732</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979287</v>
@@ -7822,22 +7822,22 @@
         <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,16 +22553,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>280.1262230804347</v>
       </c>
       <c r="G2" t="n">
-        <v>191.7382571322234</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,19 +22750,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>125.8802054996508</v>
       </c>
       <c r="U4" t="n">
-        <v>165.9769576154307</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22771,7 +22771,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>19.50758019582713</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>84.7739166056177</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>46.45968844823237</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>126.7587027673758</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>5.909506488879686</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1286504.493637068</v>
+        <v>1286504.493637067</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1286504.493637068</v>
+        <v>1286504.493637067</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1286504.493637068</v>
+        <v>1286504.493637067</v>
       </c>
     </row>
     <row r="10">
@@ -26317,7 +26317,7 @@
         <v>143682.3097262497</v>
       </c>
       <c r="D2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="E2" t="n">
         <v>141250.6549457511</v>
@@ -26326,7 +26326,7 @@
         <v>141250.6549457511</v>
       </c>
       <c r="G2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.654945751</v>
       </c>
       <c r="H2" t="n">
         <v>141250.6549457511</v>
@@ -26335,7 +26335,7 @@
         <v>141250.6549457511</v>
       </c>
       <c r="J2" t="n">
-        <v>141250.654945751</v>
+        <v>141250.6549457511</v>
       </c>
       <c r="K2" t="n">
         <v>143682.3097262496</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363179</v>
       </c>
     </row>
     <row r="4">
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3456.4265220205</v>
+        <v>3456.426522020552</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405246</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189201</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189199</v>
       </c>
       <c r="H4" t="n">
         <v>16046.58397189199</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189199</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>24037.44323498545</v>
+        <v>24037.44323498543</v>
       </c>
       <c r="L4" t="n">
-        <v>24037.44323498544</v>
+        <v>24037.44323498543</v>
       </c>
       <c r="M4" t="n">
-        <v>24037.44323498544</v>
+        <v>24037.44323498546</v>
       </c>
       <c r="N4" t="n">
-        <v>24037.44323498544</v>
+        <v>24037.44323498541</v>
       </c>
       <c r="O4" t="n">
-        <v>24037.44323498543</v>
+        <v>24037.4432349854</v>
       </c>
       <c r="P4" t="n">
         <v>24037.44323498545</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1324090.26896548</v>
+        <v>-1324485.089906633</v>
       </c>
       <c r="C6" t="n">
-        <v>-57848.37493919615</v>
+        <v>-57848.37493919616</v>
       </c>
       <c r="D6" t="n">
-        <v>-57848.37493919619</v>
+        <v>-57848.37493919607</v>
       </c>
       <c r="E6" t="n">
-        <v>-301330.9206574034</v>
+        <v>-301365.6585828385</v>
       </c>
       <c r="F6" t="n">
-        <v>24081.541149952</v>
+        <v>24046.80322451632</v>
       </c>
       <c r="G6" t="n">
-        <v>24081.54114995204</v>
+        <v>24046.80322451625</v>
       </c>
       <c r="H6" t="n">
-        <v>24081.541149952</v>
+        <v>24046.80322451628</v>
       </c>
       <c r="I6" t="n">
-        <v>24081.541149952</v>
+        <v>24046.80322451632</v>
       </c>
       <c r="J6" t="n">
-        <v>-193449.6612473256</v>
+        <v>-193484.3991727611</v>
       </c>
       <c r="K6" t="n">
-        <v>-2946.967356282985</v>
+        <v>-2946.967356282956</v>
       </c>
       <c r="L6" t="n">
         <v>16480.7506373488</v>
       </c>
       <c r="M6" t="n">
-        <v>-68574.27729816307</v>
+        <v>-68574.27729816301</v>
       </c>
       <c r="N6" t="n">
         <v>16480.75063734883</v>
       </c>
       <c r="O6" t="n">
-        <v>16480.75063734886</v>
+        <v>16480.75063734884</v>
       </c>
       <c r="P6" t="n">
-        <v>-2946.967356282985</v>
+        <v>-2946.96735628297</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
         <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203973</v>
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26823,10 +26823,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>64.88826281530709</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,7 +27591,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>113.2908573197856</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>240.9947042380796</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>308.2605734982509</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,10 +27783,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>63.96020458024586</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>94.71958810065347</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>354.3723148319955</v>
       </c>
       <c r="F8" t="n">
-        <v>47.68174087387735</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28014,13 +28014,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>66.44691461204782</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>165.0372986783259</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28272,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28527,7 +28527,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="35">
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496632</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,16 +32072,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>266.3926848685833</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32555,25 +32555,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32710,7 +32710,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L23" t="n">
         <v>867.846407116256</v>
@@ -32783,25 +32783,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>290.6810969936921</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>754.000239683233</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33187,7 +33187,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M29" t="n">
         <v>965.6463440175675</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,10 +33494,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33673,7 +33673,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669223</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>164.9290651940687</v>
+        <v>463.4318227833011</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>577.7447198439381</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>705.9257335045844</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34451,34 +34451,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663299</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096363</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>128.5512458942243</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394599</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35823,7 +35823,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998967</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>159.3393849103587</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>622.6585275998997</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,10 +36990,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37321,7 +37321,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>22.33282074962425</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>439.1903400640639</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>574.5840214212511</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
